--- a/mbrMoPvt_71.xlsx
+++ b/mbrMoPvt_71.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -106,10 +106,31 @@
     <t>m-2021-06</t>
   </si>
   <si>
+    <t>m-2021-07</t>
+  </si>
+  <si>
+    <t>m-2021-08</t>
+  </si>
+  <si>
+    <t>m-2021-09</t>
+  </si>
+  <si>
+    <t>m-2021-10</t>
+  </si>
+  <si>
+    <t>m-2021-11</t>
+  </si>
+  <si>
     <t>org_id</t>
   </si>
   <si>
-    <t>MEDSTAR_MDPCP</t>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>CARELINEPI</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
   </si>
 </sst>
 </file>
@@ -467,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -567,100 +588,350 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>60146</v>
+        <v>6455</v>
       </c>
       <c r="C2">
-        <v>60146</v>
+        <v>6500</v>
       </c>
       <c r="D2">
-        <v>60146</v>
+        <v>6532</v>
       </c>
       <c r="E2">
-        <v>60146</v>
+        <v>6586</v>
       </c>
       <c r="F2">
-        <v>60146</v>
+        <v>6637</v>
       </c>
       <c r="G2">
-        <v>60146</v>
+        <v>6685</v>
       </c>
       <c r="H2">
-        <v>60146</v>
+        <v>6731</v>
       </c>
       <c r="I2">
-        <v>60146</v>
+        <v>6777</v>
       </c>
       <c r="J2">
-        <v>60146</v>
+        <v>6819</v>
       </c>
       <c r="K2">
-        <v>58047</v>
+        <v>6851</v>
       </c>
       <c r="L2">
-        <v>58047</v>
+        <v>6880</v>
       </c>
       <c r="M2">
-        <v>58047</v>
+        <v>6908</v>
       </c>
       <c r="N2">
-        <v>56305</v>
+        <v>6937</v>
       </c>
       <c r="O2">
-        <v>56305</v>
+        <v>6963</v>
       </c>
       <c r="P2">
-        <v>56305</v>
+        <v>6984</v>
       </c>
       <c r="Q2">
-        <v>54325</v>
+        <v>7002</v>
       </c>
       <c r="R2">
-        <v>54325</v>
+        <v>7023</v>
       </c>
       <c r="S2">
-        <v>54325</v>
+        <v>7033</v>
       </c>
       <c r="T2">
-        <v>52841</v>
+        <v>7040</v>
       </c>
       <c r="U2">
-        <v>52841</v>
+        <v>7043</v>
       </c>
       <c r="V2">
-        <v>52841</v>
+        <v>7045</v>
       </c>
       <c r="W2">
-        <v>49960</v>
+        <v>7046</v>
       </c>
       <c r="X2">
-        <v>49960</v>
+        <v>7048</v>
       </c>
       <c r="Y2">
-        <v>49960</v>
+        <v>7051</v>
       </c>
       <c r="Z2">
-        <v>47415</v>
+        <v>7053</v>
       </c>
       <c r="AA2">
-        <v>47415</v>
+        <v>7053</v>
       </c>
       <c r="AB2">
-        <v>47415</v>
+        <v>7053</v>
       </c>
       <c r="AC2">
-        <v>45438</v>
+        <v>7053</v>
       </c>
       <c r="AD2">
-        <v>45438</v>
+        <v>7022</v>
       </c>
       <c r="AE2">
-        <v>45438</v>
+        <v>6955</v>
+      </c>
+      <c r="AF2">
+        <v>6857</v>
+      </c>
+      <c r="AG2">
+        <v>6806</v>
+      </c>
+      <c r="AH2">
+        <v>6747</v>
+      </c>
+      <c r="AI2">
+        <v>6690</v>
+      </c>
+      <c r="AJ2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>739</v>
+      </c>
+      <c r="C3">
+        <v>740</v>
+      </c>
+      <c r="D3">
+        <v>741</v>
+      </c>
+      <c r="E3">
+        <v>741</v>
+      </c>
+      <c r="F3">
+        <v>742</v>
+      </c>
+      <c r="G3">
+        <v>743</v>
+      </c>
+      <c r="H3">
+        <v>744</v>
+      </c>
+      <c r="I3">
+        <v>745</v>
+      </c>
+      <c r="J3">
+        <v>745</v>
+      </c>
+      <c r="K3">
+        <v>746</v>
+      </c>
+      <c r="L3">
+        <v>747</v>
+      </c>
+      <c r="M3">
+        <v>748</v>
+      </c>
+      <c r="N3">
+        <v>748</v>
+      </c>
+      <c r="O3">
+        <v>749</v>
+      </c>
+      <c r="P3">
+        <v>749</v>
+      </c>
+      <c r="Q3">
+        <v>751</v>
+      </c>
+      <c r="R3">
+        <v>751</v>
+      </c>
+      <c r="S3">
+        <v>751</v>
+      </c>
+      <c r="T3">
+        <v>751</v>
+      </c>
+      <c r="U3">
+        <v>751</v>
+      </c>
+      <c r="V3">
+        <v>751</v>
+      </c>
+      <c r="W3">
+        <v>751</v>
+      </c>
+      <c r="X3">
+        <v>751</v>
+      </c>
+      <c r="Y3">
+        <v>751</v>
+      </c>
+      <c r="Z3">
+        <v>751</v>
+      </c>
+      <c r="AA3">
+        <v>751</v>
+      </c>
+      <c r="AB3">
+        <v>722</v>
+      </c>
+      <c r="AC3">
+        <v>692</v>
+      </c>
+      <c r="AD3">
+        <v>661</v>
+      </c>
+      <c r="AE3">
+        <v>635</v>
+      </c>
+      <c r="AF3">
+        <v>797</v>
+      </c>
+      <c r="AG3">
+        <v>750</v>
+      </c>
+      <c r="AH3">
+        <v>709</v>
+      </c>
+      <c r="AI3">
+        <v>865</v>
+      </c>
+      <c r="AJ3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>2833</v>
+      </c>
+      <c r="C4">
+        <v>2848</v>
+      </c>
+      <c r="D4">
+        <v>2862</v>
+      </c>
+      <c r="E4">
+        <v>2876</v>
+      </c>
+      <c r="F4">
+        <v>2889</v>
+      </c>
+      <c r="G4">
+        <v>2901</v>
+      </c>
+      <c r="H4">
+        <v>2927</v>
+      </c>
+      <c r="I4">
+        <v>2942</v>
+      </c>
+      <c r="J4">
+        <v>2957</v>
+      </c>
+      <c r="K4">
+        <v>2966</v>
+      </c>
+      <c r="L4">
+        <v>2979</v>
+      </c>
+      <c r="M4">
+        <v>3001</v>
+      </c>
+      <c r="N4">
+        <v>3020</v>
+      </c>
+      <c r="O4">
+        <v>3038</v>
+      </c>
+      <c r="P4">
+        <v>3045</v>
+      </c>
+      <c r="Q4">
+        <v>3058</v>
+      </c>
+      <c r="R4">
+        <v>3061</v>
+      </c>
+      <c r="S4">
+        <v>3067</v>
+      </c>
+      <c r="T4">
+        <v>3073</v>
+      </c>
+      <c r="U4">
+        <v>3073</v>
+      </c>
+      <c r="V4">
+        <v>3073</v>
+      </c>
+      <c r="W4">
+        <v>3074</v>
+      </c>
+      <c r="X4">
+        <v>3074</v>
+      </c>
+      <c r="Y4">
+        <v>3075</v>
+      </c>
+      <c r="Z4">
+        <v>3076</v>
+      </c>
+      <c r="AA4">
+        <v>3076</v>
+      </c>
+      <c r="AB4">
+        <v>3076</v>
+      </c>
+      <c r="AC4">
+        <v>3076</v>
+      </c>
+      <c r="AD4">
+        <v>3054</v>
+      </c>
+      <c r="AE4">
+        <v>3005</v>
+      </c>
+      <c r="AF4">
+        <v>2991</v>
+      </c>
+      <c r="AG4">
+        <v>2949</v>
+      </c>
+      <c r="AH4">
+        <v>2901</v>
+      </c>
+      <c r="AI4">
+        <v>2858</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
